--- a/ExcelFiles/output1.xlsx
+++ b/ExcelFiles/output1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
   <si>
     <t>Team#</t>
   </si>
@@ -70,9 +70,15 @@
     <t>12</t>
   </si>
   <si>
+    <t>124241124124124</t>
+  </si>
+  <si>
     <t>2111111111111111111</t>
   </si>
   <si>
+    <t>21111111111111111111</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
@@ -83,6 +89,9 @@
   </si>
   <si>
     <t>257</t>
+  </si>
+  <si>
+    <t>12412412424</t>
   </si>
   <si>
     <t>123</t>
@@ -479,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,7 +555,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -557,52 +566,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -613,16 +577,52 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -630,16 +630,55 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -647,13 +686,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -661,13 +706,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -675,10 +723,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -686,55 +737,80 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="M9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
         <v>33</v>
       </c>
-      <c r="O9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="M11" t="s">
         <v>35</v>
       </c>
-      <c r="R9" t="s">
-        <v>26</v>
+      <c r="N11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFiles/output1.xlsx
+++ b/ExcelFiles/output1.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Team 12" sheetId="1" r:id="rId1"/>
+    <sheet name="Team 2468" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Team#</t>
   </si>
@@ -49,88 +50,16 @@
     <t>comments</t>
   </si>
   <si>
-    <t>Colour</t>
-  </si>
-  <si>
-    <t>StartingPosition</t>
-  </si>
-  <si>
-    <t>Docked (Auto)</t>
-  </si>
-  <si>
-    <t>Docked (Teleop)</t>
-  </si>
-  <si>
-    <t>CubesConesBoth</t>
-  </si>
-  <si>
-    <t>Nodes</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
-    <t>124241124124124</t>
-  </si>
-  <si>
-    <t>2111111111111111111</t>
-  </si>
-  <si>
-    <t>21111111111111111111</t>
-  </si>
-  <si>
-    <t>24</t>
+    <t>257</t>
   </si>
   <si>
     <t>2468</t>
   </si>
   <si>
-    <t>2478</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>12412412424</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>2323</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>ergerhrthjrtyjtykjtyjtyktyktyktykkttkytyktyktyktyktyktyktyktyktky1111111111111111111111111111111111111111 was good</t>
-  </si>
-  <si>
-    <t>ergerhrthjrtyjtykjtyjtyktyktyktykkttkytyktyktyktyktyktyktyktyktky</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Docked</t>
-  </si>
-  <si>
-    <t>Cones</t>
   </si>
 </sst>
 </file>
@@ -488,13 +417,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,289 +457,75 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="C2" t="s">
         <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R11" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFiles/output1.xlsx
+++ b/ExcelFiles/output1.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Team 12" sheetId="1" r:id="rId1"/>
+    <sheet name="Team " sheetId="1" r:id="rId1"/>
     <sheet name="Team 2468" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="19">
   <si>
     <t>Team#</t>
   </si>
@@ -47,19 +47,31 @@
     <t>Blue Score</t>
   </si>
   <si>
+    <t>Nodes</t>
+  </si>
+  <si>
     <t>comments</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>257</t>
+    <t>CubesConesBoth</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>efeewf</t>
+  </si>
+  <si>
+    <t>Cones</t>
   </si>
   <si>
     <t>2468</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
 </sst>
 </file>
@@ -417,13 +429,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,16 +469,97 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="M8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -514,7 +607,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -522,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
